--- a/example/MetaData/Event.xlsx
+++ b/example/MetaData/Event.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
-  <si>
-    <t>reward_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>item_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,11 +24,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>item_meta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail_expire_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -76,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -382,154 +407,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>200001</v>
-      </c>
-      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
         <v>100001</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>200002</v>
-      </c>
-      <c r="B4">
-        <v>100002</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>200003</v>
-      </c>
-      <c r="B5">
-        <v>100003</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>200004</v>
-      </c>
-      <c r="B6">
-        <v>100004</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>200005</v>
-      </c>
-      <c r="B7">
-        <v>100005</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>200006</v>
-      </c>
-      <c r="B8">
-        <v>100006</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>200007</v>
-      </c>
-      <c r="B9">
-        <v>100007</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>200008</v>
-      </c>
-      <c r="B10">
-        <v>100008</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>200009</v>
-      </c>
-      <c r="B11">
-        <v>100009</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>200010</v>
-      </c>
-      <c r="B12">
-        <v>100010</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>200011</v>
-      </c>
-      <c r="B13">
-        <v>100011</v>
-      </c>
-      <c r="C13">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>

--- a/example/MetaData/Event.xlsx
+++ b/example/MetaData/Event.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>item_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>mail_expire_day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -472,7 +476,41 @@
         <v>100001</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>100002</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>100003</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
